--- a/ToolikLake/ParameterInputsToolik.xlsx
+++ b/ToolikLake/ParameterInputsToolik.xlsx
@@ -456,7 +456,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,7 +530,9 @@
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2">
+        <v>2.9</v>
+      </c>
       <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
@@ -539,7 +541,9 @@
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2">
+        <v>0.28999999999999998</v>
+      </c>
       <c r="C8" s="2" t="s">
         <v>12</v>
       </c>

--- a/ToolikLake/ParameterInputsToolik.xlsx
+++ b/ToolikLake/ParameterInputsToolik.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="180" windowWidth="22995" windowHeight="14310"/>
+    <workbookView xWindow="480" yWindow="180" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -105,20 +105,20 @@
     <t>DOC_precip</t>
   </si>
   <si>
-    <t>#Min/Resp Parameters</t>
-  </si>
-  <si>
-    <t>DOC_miner_const</t>
-  </si>
-  <si>
     <t>RespParam</t>
+  </si>
+  <si>
+    <t>POC_lc</t>
+  </si>
+  <si>
+    <t>#Leech/Resp Parameters</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,7 +241,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -276,7 +275,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -452,19 +450,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -475,14 +473,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -493,7 +491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -504,7 +502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -515,7 +513,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -526,7 +524,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -537,7 +535,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -548,14 +546,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -566,14 +564,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
@@ -584,7 +582,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
@@ -595,7 +593,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
@@ -606,7 +604,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
         <v>23</v>
       </c>
@@ -617,7 +615,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
         <v>26</v>
       </c>
@@ -628,7 +626,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
         <v>25</v>
       </c>
@@ -639,12 +637,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
         <v>28</v>
       </c>
@@ -655,27 +653,27 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="3">
-        <v>3.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B22" s="3">
         <v>1E-3</v>
@@ -690,24 +688,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ToolikLake/ParameterInputsToolik.xlsx
+++ b/ToolikLake/ParameterInputsToolik.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>Parameter</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>#Leech/Resp Parameters</t>
+  </si>
+  <si>
+    <t>R_auto</t>
   </si>
 </sst>
 </file>
@@ -451,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -679,6 +682,17 @@
         <v>1E-3</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23">
+        <v>0.8</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>19</v>
       </c>
     </row>
